--- a/financeiro/resumo_campanha_62.xlsx
+++ b/financeiro/resumo_campanha_62.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>CAMPANHA 62</t>
   </si>
@@ -59,7 +59,13 @@
     <t>COMISSÃO (2%)-PÓS-FECH</t>
   </si>
   <si>
-    <t>Josefina</t>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Sttefani</t>
+  </si>
+  <si>
+    <t>Sibely</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -537,10 +543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,19 +619,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>900.0</v>
+        <v>6381.76</v>
       </c>
       <c r="D8" s="6">
-        <v>0</v>
+        <v>4122.26</v>
       </c>
       <c r="E8" s="6">
-        <v>900.0</v>
+        <v>2259.5</v>
       </c>
       <c r="F8" s="7">
-        <v>1.0</v>
+        <v>0.35405593441308</v>
       </c>
       <c r="G8" s="6">
-        <v>9.0</v>
+        <v>22.595</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -635,226 +641,226 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9">
-        <v>900.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>900.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="C9" s="6">
+        <v>6545.51</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1800.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4745.51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.72500232984137</v>
+      </c>
+      <c r="G9" s="6">
+        <v>47.4551</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>0.0</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7855.8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7855.8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9">
+        <v>20783.07</v>
+      </c>
+      <c r="D11" s="9">
+        <v>13778.06</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7005.01</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.33705366916437</v>
+      </c>
+      <c r="G11" s="9">
+        <v>70.0501</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="F14" s="1" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6">
-        <v>900.0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>900.0</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -862,140 +868,226 @@
         <v>22</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>20783.07</v>
       </c>
       <c r="D21" s="6">
-        <v>0</v>
+        <v>13778.06</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>7005.01</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>0.33705366916437</v>
       </c>
       <c r="G21" s="6">
-        <v>0</v>
+        <v>70.0501</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="9">
+        <v>20783.07</v>
+      </c>
+      <c r="D24" s="9">
+        <v>13778.06</v>
+      </c>
+      <c r="E24" s="9">
+        <v>7005.01</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.33705366916437</v>
+      </c>
+      <c r="G24" s="9">
+        <v>70.0501</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="12">
+        <v>6381.76</v>
+      </c>
+      <c r="E28" s="13">
+        <v>4122.26</v>
+      </c>
+      <c r="F28" s="12">
+        <v>2259.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="9">
-        <v>900.0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>900.0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="D29" s="12">
+        <v>6545.51</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1800.0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>4745.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="12">
+        <v>7855.8</v>
+      </c>
+      <c r="E30" s="13">
+        <v>7855.8</v>
+      </c>
+      <c r="F30" s="12">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12">
-        <v>900.0</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="5"/>
-      <c r="C29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="9">
-        <v>900.0</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="D30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="31" spans="1:9">
-      <c r="D31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="15">
-        <v>1.0</v>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="4"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="5"/>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="9">
+        <v>20783.07</v>
+      </c>
+      <c r="E33" s="9">
+        <v>13778.06</v>
+      </c>
+      <c r="F33" s="9">
+        <v>7005.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="D34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0.66294633083563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="D35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.33705366916437</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/financeiro/resumo_campanha_62.xlsx
+++ b/financeiro/resumo_campanha_62.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>CAMPANHA 62</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>COMISSÃO (2%)-PÓS-FECH</t>
+  </si>
+  <si>
+    <t>Ana</t>
   </si>
   <si>
     <t>Alan</t>
@@ -543,10 +546,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,19 +622,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>6381.76</v>
+        <v>8071.5</v>
       </c>
       <c r="D8" s="6">
-        <v>4122.26</v>
+        <v>8071.5</v>
       </c>
       <c r="E8" s="6">
-        <v>2259.5</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.35405593441308</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
-        <v>22.595</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -645,19 +648,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>6545.51</v>
+        <v>6381.76</v>
       </c>
       <c r="D9" s="6">
-        <v>1800.0</v>
+        <v>4122.26</v>
       </c>
       <c r="E9" s="6">
-        <v>4745.51</v>
+        <v>2259.5</v>
       </c>
       <c r="F9" s="7">
-        <v>0.72500232984137</v>
+        <v>0.35405593441308</v>
       </c>
       <c r="G9" s="6">
-        <v>47.4551</v>
+        <v>22.595</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -671,222 +674,222 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
+        <v>6545.51</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1800.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4745.51</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.72500232984137</v>
+      </c>
+      <c r="G10" s="6">
+        <v>47.4551</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
         <v>7855.8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>7855.8</v>
       </c>
-      <c r="E10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="9">
-        <v>20783.07</v>
-      </c>
-      <c r="D11" s="9">
-        <v>13778.06</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>28854.57</v>
+      </c>
+      <c r="D12" s="9">
+        <v>21849.56</v>
+      </c>
+      <c r="E12" s="9">
         <v>7005.01</v>
       </c>
-      <c r="F11" s="10">
-        <v>0.33705366916437</v>
-      </c>
-      <c r="G11" s="9">
+      <c r="F12" s="10">
+        <v>0.24276951623261</v>
+      </c>
+      <c r="G12" s="9">
         <v>70.0501</v>
       </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="F13" s="1" t="s">
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="3" t="s">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="1:9">
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="F19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6">
-        <v>20783.07</v>
-      </c>
-      <c r="D21" s="6">
-        <v>13778.06</v>
-      </c>
-      <c r="E21" s="6">
-        <v>7005.01</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.33705366916437</v>
-      </c>
-      <c r="G21" s="6">
-        <v>70.0501</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -894,25 +897,25 @@
         <v>23</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>28854.57</v>
       </c>
       <c r="D22" s="6">
-        <v>0</v>
+        <v>21849.56</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>7005.01</v>
       </c>
       <c r="F22" s="7">
-        <v>0</v>
+        <v>0.24276951623261</v>
       </c>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>70.0501</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -942,152 +945,195 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="9">
-        <v>20783.07</v>
-      </c>
-      <c r="D24" s="9">
-        <v>13778.06</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9">
+        <v>28854.57</v>
+      </c>
+      <c r="D25" s="9">
+        <v>21849.56</v>
+      </c>
+      <c r="E25" s="9">
         <v>7005.01</v>
       </c>
-      <c r="F24" s="10">
-        <v>0.33705366916437</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F25" s="10">
+        <v>0.24276951623261</v>
+      </c>
+      <c r="G25" s="9">
         <v>70.0501</v>
       </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="1" t="s">
-        <v>25</v>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="12">
-        <v>6381.76</v>
-      </c>
-      <c r="E28" s="13">
-        <v>4122.26</v>
-      </c>
-      <c r="F28" s="12">
-        <v>2259.5</v>
+      <c r="F28" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="12">
-        <v>6545.51</v>
+        <v>8071.5</v>
       </c>
       <c r="E29" s="13">
-        <v>1800.0</v>
+        <v>8071.5</v>
       </c>
       <c r="F29" s="12">
-        <v>4745.51</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="12">
+        <v>6381.76</v>
+      </c>
+      <c r="E30" s="13">
+        <v>4122.26</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2259.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
+        <v>6545.51</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1800.0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>4745.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="12">
         <v>7855.8</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E32" s="13">
         <v>7855.8</v>
       </c>
-      <c r="F30" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="5"/>
-      <c r="C33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="9">
-        <v>20783.07</v>
-      </c>
-      <c r="E33" s="9">
-        <v>13778.06</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="B33" s="4"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="4"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="5"/>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9">
+        <v>28854.57</v>
+      </c>
+      <c r="E35" s="9">
+        <v>21849.56</v>
+      </c>
+      <c r="F35" s="9">
         <v>7005.01</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="D34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0.66294633083563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="D35" s="14" t="s">
+    <row r="36" spans="1:9">
+      <c r="D36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="15">
-        <v>0.33705366916437</v>
+      <c r="E36" s="15">
+        <v>0.75723048376739</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="D37" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.24276951623261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>

--- a/financeiro/resumo_campanha_62.xlsx
+++ b/financeiro/resumo_campanha_62.xlsx
@@ -622,19 +622,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>8071.5</v>
+        <v>9130.91</v>
       </c>
       <c r="D8" s="6">
         <v>8071.5</v>
       </c>
       <c r="E8" s="6">
-        <v>0.0</v>
+        <v>1059.41</v>
       </c>
       <c r="F8" s="7">
-        <v>0.0</v>
+        <v>0.11602458024447</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>10.5941</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -726,19 +726,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="9">
-        <v>28854.57</v>
+        <v>29913.98</v>
       </c>
       <c r="D12" s="9">
         <v>21849.56</v>
       </c>
       <c r="E12" s="9">
-        <v>7005.01</v>
+        <v>8064.42</v>
       </c>
       <c r="F12" s="10">
-        <v>0.24276951623261</v>
+        <v>0.26958699577923</v>
       </c>
       <c r="G12" s="9">
-        <v>70.0501</v>
+        <v>80.6442</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>23</v>
       </c>
       <c r="C22" s="6">
-        <v>28854.57</v>
+        <v>29913.98</v>
       </c>
       <c r="D22" s="6">
         <v>21849.56</v>
       </c>
       <c r="E22" s="6">
-        <v>7005.01</v>
+        <v>8064.42</v>
       </c>
       <c r="F22" s="7">
-        <v>0.24276951623261</v>
+        <v>0.26958699577923</v>
       </c>
       <c r="G22" s="6">
-        <v>70.0501</v>
+        <v>80.6442</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>28854.57</v>
+        <v>29913.98</v>
       </c>
       <c r="D25" s="9">
         <v>21849.56</v>
       </c>
       <c r="E25" s="9">
-        <v>7005.01</v>
+        <v>8064.42</v>
       </c>
       <c r="F25" s="10">
-        <v>0.24276951623261</v>
+        <v>0.26958699577923</v>
       </c>
       <c r="G25" s="9">
-        <v>70.0501</v>
+        <v>80.6442</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>14</v>
       </c>
       <c r="D29" s="12">
-        <v>8071.5</v>
+        <v>9130.91</v>
       </c>
       <c r="E29" s="13">
         <v>8071.5</v>
       </c>
       <c r="F29" s="12">
-        <v>0.0</v>
+        <v>1059.41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1106,13 +1106,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="9">
-        <v>28854.57</v>
+        <v>29913.98</v>
       </c>
       <c r="E35" s="9">
         <v>21849.56</v>
       </c>
       <c r="F35" s="9">
-        <v>7005.01</v>
+        <v>8064.42</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1120,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="15">
-        <v>0.75723048376739</v>
+        <v>0.73041300422077</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1128,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="15">
-        <v>0.24276951623261</v>
+        <v>0.26958699577923</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_62.xlsx
+++ b/financeiro/resumo_campanha_62.xlsx
@@ -29,7 +29,7 @@
     <t>PAGAMENTO:</t>
   </si>
   <si>
-    <t>05/10/2024</t>
+    <t>05/09/2024</t>
   </si>
   <si>
     <t>VENDA EM BOLETOS - MATRIZ</t>
@@ -637,10 +637,10 @@
         <v>10.5941</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>775.0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -648,19 +648,19 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>6381.76</v>
+        <v>6286.06</v>
       </c>
       <c r="D9" s="6">
-        <v>4122.26</v>
+        <v>5281.36</v>
       </c>
       <c r="E9" s="6">
-        <v>2259.5</v>
+        <v>1004.7</v>
       </c>
       <c r="F9" s="7">
-        <v>0.35405593441308</v>
+        <v>0.15982984572212</v>
       </c>
       <c r="G9" s="6">
-        <v>22.595</v>
+        <v>10.047</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -726,25 +726,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="9">
-        <v>29913.98</v>
+        <v>29818.28</v>
       </c>
       <c r="D12" s="9">
-        <v>21849.56</v>
+        <v>23008.66</v>
       </c>
       <c r="E12" s="9">
-        <v>8064.42</v>
+        <v>6809.62</v>
       </c>
       <c r="F12" s="10">
-        <v>0.26958699577923</v>
+        <v>0.22837065048688</v>
       </c>
       <c r="G12" s="9">
-        <v>80.6442</v>
+        <v>68.0962</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>775.0</v>
       </c>
       <c r="I12" s="9">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -897,25 +897,25 @@
         <v>23</v>
       </c>
       <c r="C22" s="6">
-        <v>29913.98</v>
+        <v>29818.28</v>
       </c>
       <c r="D22" s="6">
-        <v>21849.56</v>
+        <v>23008.66</v>
       </c>
       <c r="E22" s="6">
-        <v>8064.42</v>
+        <v>6809.62</v>
       </c>
       <c r="F22" s="7">
-        <v>0.26958699577923</v>
+        <v>0.22837065048688</v>
       </c>
       <c r="G22" s="6">
-        <v>80.6442</v>
+        <v>68.0962</v>
       </c>
       <c r="H22" s="8">
-        <v>0</v>
+        <v>775.0</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -975,25 +975,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="9">
-        <v>29913.98</v>
+        <v>29818.28</v>
       </c>
       <c r="D25" s="9">
-        <v>21849.56</v>
+        <v>23008.66</v>
       </c>
       <c r="E25" s="9">
-        <v>8064.42</v>
+        <v>6809.62</v>
       </c>
       <c r="F25" s="10">
-        <v>0.26958699577923</v>
+        <v>0.22837065048688</v>
       </c>
       <c r="G25" s="9">
-        <v>80.6442</v>
+        <v>68.0962</v>
       </c>
       <c r="H25" s="9">
-        <v>0</v>
+        <v>775.0</v>
       </c>
       <c r="I25" s="9">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1043,13 +1043,13 @@
         <v>15</v>
       </c>
       <c r="D30" s="12">
-        <v>6381.76</v>
+        <v>6286.06</v>
       </c>
       <c r="E30" s="13">
-        <v>4122.26</v>
+        <v>5281.36</v>
       </c>
       <c r="F30" s="12">
-        <v>2259.5</v>
+        <v>1004.7</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1106,13 +1106,13 @@
         <v>18</v>
       </c>
       <c r="D35" s="9">
-        <v>29913.98</v>
+        <v>29818.28</v>
       </c>
       <c r="E35" s="9">
-        <v>21849.56</v>
+        <v>23008.66</v>
       </c>
       <c r="F35" s="9">
-        <v>8064.42</v>
+        <v>6809.62</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1120,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="15">
-        <v>0.73041300422077</v>
+        <v>0.77162934951312</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1128,7 +1128,7 @@
         <v>31</v>
       </c>
       <c r="E37" s="15">
-        <v>0.26958699577923</v>
+        <v>0.22837065048688</v>
       </c>
     </row>
   </sheetData>

--- a/financeiro/resumo_campanha_62.xlsx
+++ b/financeiro/resumo_campanha_62.xlsx
@@ -59,16 +59,16 @@
     <t>COMISSÃO (2%)-PÓS-FECH</t>
   </si>
   <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t>Ana</t>
   </si>
   <si>
-    <t>Alan</t>
+    <t>Sibely</t>
   </si>
   <si>
     <t>Sttefani</t>
-  </si>
-  <si>
-    <t>Sibely</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -622,25 +622,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <v>9130.91</v>
+        <v>6286.06</v>
       </c>
       <c r="D8" s="6">
-        <v>8071.5</v>
+        <v>5281.36</v>
       </c>
       <c r="E8" s="6">
-        <v>1059.41</v>
+        <v>1004.7</v>
       </c>
       <c r="F8" s="7">
-        <v>0.11602458024447</v>
+        <v>0.15982984572212</v>
       </c>
       <c r="G8" s="6">
-        <v>10.5941</v>
+        <v>10.047</v>
       </c>
       <c r="H8" s="8">
-        <v>775.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>15.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -648,25 +648,25 @@
         <v>15</v>
       </c>
       <c r="C9" s="6">
-        <v>6286.06</v>
+        <v>9130.91</v>
       </c>
       <c r="D9" s="6">
-        <v>5281.36</v>
+        <v>8071.5</v>
       </c>
       <c r="E9" s="6">
-        <v>1004.7</v>
+        <v>1059.41</v>
       </c>
       <c r="F9" s="7">
-        <v>0.15982984572212</v>
+        <v>0.11602458024447</v>
       </c>
       <c r="G9" s="6">
-        <v>10.047</v>
+        <v>10.5941</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>775.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -674,19 +674,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="6">
-        <v>6545.51</v>
+        <v>7855.8</v>
       </c>
       <c r="D10" s="6">
-        <v>1800.0</v>
+        <v>7855.8</v>
       </c>
       <c r="E10" s="6">
-        <v>4745.51</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.72500232984137</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="6">
-        <v>47.4551</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>17</v>
       </c>
       <c r="C11" s="6">
-        <v>7855.8</v>
+        <v>6545.51</v>
       </c>
       <c r="D11" s="6">
-        <v>7855.8</v>
+        <v>1800.0</v>
       </c>
       <c r="E11" s="6">
-        <v>0.0</v>
+        <v>4745.51</v>
       </c>
       <c r="F11" s="7">
-        <v>0.0</v>
+        <v>0.72500232984137</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>47.4551</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>14</v>
       </c>
       <c r="D29" s="12">
-        <v>9130.91</v>
+        <v>6286.06</v>
       </c>
       <c r="E29" s="13">
-        <v>8071.5</v>
+        <v>5281.36</v>
       </c>
       <c r="F29" s="12">
-        <v>1059.41</v>
+        <v>1004.7</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1043,13 +1043,13 @@
         <v>15</v>
       </c>
       <c r="D30" s="12">
-        <v>6286.06</v>
+        <v>9130.91</v>
       </c>
       <c r="E30" s="13">
-        <v>5281.36</v>
+        <v>8071.5</v>
       </c>
       <c r="F30" s="12">
-        <v>1004.7</v>
+        <v>1059.41</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1060,13 +1060,13 @@
         <v>16</v>
       </c>
       <c r="D31" s="12">
-        <v>6545.51</v>
+        <v>7855.8</v>
       </c>
       <c r="E31" s="13">
-        <v>1800.0</v>
+        <v>7855.8</v>
       </c>
       <c r="F31" s="12">
-        <v>4745.51</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1077,13 +1077,13 @@
         <v>17</v>
       </c>
       <c r="D32" s="12">
-        <v>7855.8</v>
+        <v>6545.51</v>
       </c>
       <c r="E32" s="13">
-        <v>7855.8</v>
+        <v>1800.0</v>
       </c>
       <c r="F32" s="12">
-        <v>0.0</v>
+        <v>4745.51</v>
       </c>
     </row>
     <row r="33" spans="1:9">
